--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject_01\1601MGroup4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="22368" windowHeight="10608"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="22365" windowHeight="10605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>姓名</t>
   </si>
@@ -117,13 +112,26 @@
   <si>
     <t>掌握git运行流程，熟练解决错误</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组合力将文件进行了上传和修改，自己将分支都做了一遍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部完成</t>
+  </si>
+  <si>
+    <t>上传的过程中，出现了一些小问题，pull的更新，其余也没什么</t>
+  </si>
+  <si>
+    <t>认真听课，跟着老师的步伐一步步走，自己在多看看文档，多加练习</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +180,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -218,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +313,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -313,6 +325,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -333,7 +351,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -375,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,10 +425,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,7 +459,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,26 +634,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="40.5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -677,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="76.150000000000006" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -686,21 +702,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="61.9" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="85.15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="97.9" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -713,765 +729,778 @@
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="34" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="81" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="27">
+        <v>43346</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="94.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="94.9" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="57" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="2" customFormat="1">
       <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="36" customHeight="1">
       <c r="C21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.15" customHeight="1">
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.15" customHeight="1">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" customHeight="1">
       <c r="A24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31.9" customHeight="1">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="25.15" customHeight="1"/>
+    <row r="27" spans="1:6" ht="21" customHeight="1">
       <c r="C27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="25.9" customHeight="1">
       <c r="C30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="42" customHeight="1">
       <c r="C31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="30" customHeight="1">
       <c r="A32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="22.9" customHeight="1">
       <c r="A33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="14"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="30" customHeight="1">
       <c r="A34" s="13"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
       <c r="E34" s="14"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="13"/>
       <c r="C35" s="15"/>
       <c r="D35" s="13"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="28.9" customHeight="1">
       <c r="A36" s="13"/>
       <c r="C36" s="16"/>
       <c r="D36" s="13"/>
       <c r="E36" s="17"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="4" customFormat="1">
       <c r="A38" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="25.15" customHeight="1"/>
+    <row r="40" spans="1:6" ht="34.15" customHeight="1">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="24" customHeight="1">
       <c r="C41" s="5"/>
       <c r="D41" s="18"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="45" customHeight="1">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="28.9" customHeight="1">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="49.15" customHeight="1">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="67.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="67.150000000000006" customHeight="1">
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="46.15" customHeight="1">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="25.15" customHeight="1">
       <c r="A48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="33" customHeight="1">
       <c r="A49" s="13"/>
       <c r="C49" s="14"/>
       <c r="D49" s="13"/>
       <c r="E49" s="14"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="45" customHeight="1">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="28.9" customHeight="1">
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="25.9" customHeight="1">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="28.9" customHeight="1">
       <c r="C54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="4" customFormat="1">
       <c r="A56" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="34.9" customHeight="1">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="37.9" customHeight="1">
       <c r="A58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="27" customHeight="1">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="25.9" customHeight="1">
       <c r="E61" s="5"/>
     </row>
-    <row r="64" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="33" customHeight="1">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="27" customHeight="1">
       <c r="C65" s="5"/>
       <c r="D65" s="18"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="33" customHeight="1">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30" customHeight="1">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="22.9" customHeight="1">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="33" customHeight="1">
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="C72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="4" customFormat="1">
       <c r="A73" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="25.9" customHeight="1">
       <c r="A74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="25.9" customHeight="1">
       <c r="B75" s="19"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="77" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="22.15" customHeight="1">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="22.9" customHeight="1">
       <c r="C79" s="5"/>
       <c r="D79" s="18"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="81" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="31.9" customHeight="1">
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="28.15" customHeight="1">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="22.15" customHeight="1">
       <c r="C84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="27" customHeight="1">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="87" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="27" customHeight="1">
       <c r="C87" s="5"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="28.9" customHeight="1">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" s="4" customFormat="1"/>
+    <row r="93" spans="1:6" ht="33" customHeight="1">
       <c r="C93" s="5"/>
       <c r="D93" s="18"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="27" customHeight="1">
       <c r="A94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="28.15" customHeight="1">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="28.9" customHeight="1">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="100" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="24" customHeight="1">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="25.15" customHeight="1">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="25.15" customHeight="1">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="4" customFormat="1"/>
+    <row r="110" spans="1:6" ht="27" customHeight="1">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="28"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-    </row>
-    <row r="113" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-    </row>
-    <row r="114" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
+      <c r="A112" s="29"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+    </row>
+    <row r="113" spans="1:6" ht="13.9" customHeight="1">
+      <c r="A113" s="29"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+    </row>
+    <row r="114" spans="1:6" ht="28.15" customHeight="1">
       <c r="A114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="27" customHeight="1">
       <c r="C115" s="5"/>
       <c r="D115" s="18"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="27" customHeight="1">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="28.15" customHeight="1">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="21" customHeight="1">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="25.9" customHeight="1">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="22.15" customHeight="1">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="123" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="22.9" customHeight="1">
       <c r="C123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-    </row>
-    <row r="127" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-    </row>
-    <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
+      <c r="A126" s="30"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+    </row>
+    <row r="127" spans="1:6" ht="9" customHeight="1">
+      <c r="A127" s="30"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+    </row>
+    <row r="128" spans="1:6" s="4" customFormat="1"/>
+    <row r="130" spans="1:6" ht="27" customHeight="1">
       <c r="C130" s="5"/>
       <c r="D130" s="18"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="28"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-    </row>
-    <row r="132" spans="1:6" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="28"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-    </row>
-    <row r="133" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
+      <c r="A131" s="29"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+    </row>
+    <row r="132" spans="1:6" ht="7.9" customHeight="1">
+      <c r="A132" s="29"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+    </row>
+    <row r="133" spans="1:6" ht="34.15" customHeight="1">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30" customHeight="1">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="28.15" customHeight="1">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="28"/>
-    </row>
-    <row r="139" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="28"/>
-    </row>
-    <row r="140" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
+      <c r="A138" s="30"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="29"/>
+    </row>
+    <row r="139" spans="1:6" ht="13.15" customHeight="1">
+      <c r="A139" s="30"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="29"/>
+    </row>
+    <row r="140" spans="1:6" ht="28.15" customHeight="1">
       <c r="A140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="22.15" customHeight="1">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="22.15" customHeight="1">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="22.15" customHeight="1">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="22.15" customHeight="1"/>
+    <row r="147" spans="1:6" ht="21" customHeight="1">
       <c r="A147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" s="4" customFormat="1"/>
+    <row r="149" spans="1:6" ht="22.9" customHeight="1">
       <c r="A149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
-      <c r="B150" s="30"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="28"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="28"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="28"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
+      <c r="A150" s="29"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="29"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="30"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="29"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="30"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="29"/>
+    </row>
+    <row r="154" spans="1:6">
       <c r="D154" s="20"/>
     </row>
-    <row r="155" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="24" customHeight="1">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="22.9" customHeight="1">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="30" customHeight="1">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="28.9" customHeight="1">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="28.9" customHeight="1">
       <c r="D160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="24" customHeight="1">
       <c r="A161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="28.9" customHeight="1">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="25.9" customHeight="1">
       <c r="B164" s="19"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" s="4" customFormat="1"/>
+    <row r="166" spans="1:6" ht="25.9" customHeight="1">
       <c r="C166" s="5"/>
       <c r="D166" s="18"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="168" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="27" customHeight="1">
       <c r="A168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
-      <c r="B169" s="30"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-    </row>
-    <row r="170" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="28"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
-      <c r="B171" s="30"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="28"/>
-    </row>
-    <row r="172" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="28"/>
-    </row>
-    <row r="173" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="13.15" customHeight="1">
+      <c r="A169" s="29"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29"/>
+    </row>
+    <row r="170" spans="1:6" ht="13.15" customHeight="1">
+      <c r="A170" s="29"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="30"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="29"/>
+    </row>
+    <row r="172" spans="1:6" ht="12" customHeight="1">
+      <c r="A172" s="30"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="29"/>
+    </row>
+    <row r="173" spans="1:6" ht="34.15" customHeight="1">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" s="21"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="31.15" customHeight="1">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="177" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="28"/>
-      <c r="B178" s="30"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="28"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" s="4" customFormat="1"/>
+    <row r="178" spans="1:6">
+      <c r="A178" s="29"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
+      <c r="F178" s="29"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="29"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="29"/>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="5"/>
       <c r="B180" s="22"/>
       <c r="C180" s="5"/>
@@ -1479,30 +1508,68 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="B181" s="22"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="B182" s="22"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="B183" s="22"/>
       <c r="C183" s="5"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="B184" s="22"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="B185" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C138:C139"/>
     <mergeCell ref="A169:A170"/>
     <mergeCell ref="A171:A172"/>
     <mergeCell ref="A178:A179"/>
@@ -1519,44 +1586,6 @@
     <mergeCell ref="A126:A127"/>
     <mergeCell ref="A131:A132"/>
     <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E150:E151"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject_01\1601MGroup4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\人工智能\work\1601MGroup4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84B36AEB-D23C-40C0-9040-970351438FD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="22368" windowHeight="10608"/>
+    <workbookView xWindow="0" yWindow="1368" windowWidth="22368" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>姓名</t>
   </si>
@@ -116,13 +117,28 @@
   </si>
   <si>
     <t>掌握git运行流程，熟练解决错误</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Github账号，上传项目至Github仓库，熟悉git命令，熟悉上传流程。以上进度为当天教学内容的100%。</t>
+  </si>
+  <si>
+    <t>完成小组文件的下载、修改、上传</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不知何时分支变为 （no beanch)  2、git pull 远端与本地不一致，更新即可解决此问题。 3、远端文件更改过于频繁，导致与本地文件内容不一致。出现更新失败，从新下载一份文件即可解决。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>将Github的用途及用法更深层次的学习及记忆。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,6 +424,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -443,6 +476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,12 +668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -697,8 +747,21 @@
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="27">
+        <v>43346</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1503,6 +1566,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C138:C139"/>
     <mergeCell ref="A169:A170"/>
     <mergeCell ref="A171:A172"/>
     <mergeCell ref="A178:A179"/>
@@ -1519,44 +1620,6 @@
     <mergeCell ref="A126:A127"/>
     <mergeCell ref="A131:A132"/>
     <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E150:E151"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectLog.xlsx
+++ b/ProjectLog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\人工智能\work\1601MGroup4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8558393-25B1-4C0A-BB79-E99266C20459}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="22368" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>姓名</t>
   </si>
@@ -28,13 +22,26 @@
     <t>时间</t>
   </si>
   <si>
+    <t>今日进展</t>
+  </si>
+  <si>
     <t>结果/进展</t>
   </si>
   <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>次日计划</t>
+  </si>
+  <si>
     <t>某某某</t>
   </si>
   <si>
     <t>当前时间</t>
+  </si>
+  <si>
+    <t>1.**** 进度%
+2.****</t>
   </si>
   <si>
     <t>1.项目进展</t>
@@ -47,99 +54,77 @@
     <t>1.*****</t>
   </si>
   <si>
-    <t>问题</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.**** 进度%
-2.****</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日进展</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>次日计划</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>李旭辉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>陈发展</t>
+  </si>
+  <si>
+    <t>王群</t>
+  </si>
+  <si>
+    <t>王海</t>
+  </si>
+  <si>
+    <t>对于git的命令有一定掌握，和git运行机制有一定理解</t>
+  </si>
+  <si>
+    <t>git命令已经理解</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Committing is not possible because you have unmerged files 错误，</t>
+  </si>
+  <si>
+    <t>掌握git运行流程，熟练解决错误</t>
+  </si>
+  <si>
+    <t>杨豪康</t>
+  </si>
+  <si>
+    <t>彭奕博</t>
+  </si>
+  <si>
+    <t>2018.9.3</t>
+  </si>
+  <si>
+    <t>了解安装使用git和github.克隆修改上传文件.完成分支等一系列操作</t>
+  </si>
+  <si>
+    <t>完成以上操作</t>
+  </si>
+  <si>
+    <t>文件修改克隆没问题上传时出现地址不对 以及远端没有更新到本地的问题  均已解决</t>
+  </si>
+  <si>
+    <t>熟练掌握运用git对新的知识的学习</t>
   </si>
   <si>
     <t>周二</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>周三</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>周四</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>周五</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>李旭辉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈发展</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王群</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨豪康</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于git的命令有一定掌握，和git运行机制有一定理解</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>git命令已经理解</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Committing is not possible because you have unmerged files 错误，</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌握git运行流程，熟练解决错误</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建Github账号，上传项目至Github仓库，熟悉git命令，熟悉上传流程。以上进度为当天教学内容的100%。</t>
-  </si>
-  <si>
-    <t>完成小组文件的下载、修改、上传</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、不知何时分支变为 （no beanch)  2、git pull 远端与本地不一致，更新即可解决此问题。 3、远端文件更改过于频繁，导致与本地文件内容不一致。出现更新失败，从新下载一份文件即可解决。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">将Github的用途及用法更深层次的学习及记忆。 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,21 +171,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +334,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -228,13 +529,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,12 +787,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -259,12 +802,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +844,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,45 +859,62 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -391,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,26 +996,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,23 +1031,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,909 +1201,896 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="16.6666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" customWidth="1"/>
+    <col min="3" max="3" width="57.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.3333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.8833333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.4416666666667" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="76.2" customHeight="1" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="61.8" customHeight="1" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="85.2" customHeight="1" spans="1:3">
       <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" ht="97.8" customHeight="1" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43346</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="27">
-        <v>43346</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="27">
-        <v>43346</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="81" customHeight="1" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="94.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+    <row r="9" ht="94.95" customHeight="1" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:3">
+      <c r="A17" s="9"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" s="2" customFormat="1" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" ht="36" customHeight="1" spans="3:5">
       <c r="C21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="31.05" customHeight="1" spans="5:5">
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="28.05" customHeight="1" spans="3:5">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="30" customHeight="1" spans="1:6">
+      <c r="A24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" ht="31.95" customHeight="1" spans="5:5">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="25.05" customHeight="1"/>
+    <row r="27" ht="21" customHeight="1" spans="3:5">
       <c r="C27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="25.95" customHeight="1" spans="3:5">
       <c r="C30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="42" customHeight="1" spans="3:5">
       <c r="C31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="30" customHeight="1" spans="1:6">
+      <c r="A32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" ht="22.95" customHeight="1" spans="1:6">
+      <c r="A33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:6">
+      <c r="A34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="1:6">
+      <c r="A35" s="15"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" ht="28.95" customHeight="1" spans="1:6">
+      <c r="A36" s="15"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" ht="18.75" spans="1:6">
+      <c r="A37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" ht="25.05" customHeight="1"/>
+    <row r="40" ht="34.05" customHeight="1" spans="3:6">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="24" customHeight="1" spans="3:6">
       <c r="C41" s="5"/>
-      <c r="D41" s="18"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="45" customHeight="1" spans="5:5">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="28.95" customHeight="1" spans="3:6">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" ht="49.05" customHeight="1" spans="3:5">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="67.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="67.05" customHeight="1" spans="3:5">
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" ht="46.05" customHeight="1" spans="3:6">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="25.05" customHeight="1" spans="1:6">
       <c r="A48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
+    <row r="49" ht="33" customHeight="1" spans="1:6">
+      <c r="A49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="45" customHeight="1" spans="5:5">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" ht="28.95" customHeight="1" spans="3:3">
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="25.95" customHeight="1" spans="3:6">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="28.95" customHeight="1" spans="3:5">
       <c r="C54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" s="3" customFormat="1" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" ht="34.95" customHeight="1" spans="3:6">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="37.95" customHeight="1" spans="1:6">
       <c r="A58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="27" customHeight="1" spans="3:6">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="25.95" customHeight="1" spans="5:5">
       <c r="E61" s="5"/>
     </row>
-    <row r="64" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="33" customHeight="1" spans="3:4">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="27" customHeight="1" spans="3:6">
       <c r="C65" s="5"/>
-      <c r="D65" s="18"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" ht="33" customHeight="1" spans="3:6">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" ht="30" customHeight="1" spans="3:5">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5">
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="22.95" customHeight="1" spans="3:3">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="33" customHeight="1" spans="5:5">
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5">
       <c r="C72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" s="3" customFormat="1" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" ht="25.95" customHeight="1" spans="1:6">
       <c r="A74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
+    <row r="75" ht="25.95" customHeight="1" spans="2:6">
+      <c r="B75" s="21"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="77" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" ht="22.05" customHeight="1" spans="3:6">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" ht="24" customHeight="1" spans="3:6">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" ht="22.95" customHeight="1" spans="3:6">
       <c r="C79" s="5"/>
-      <c r="D79" s="18"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="81" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="31.95" customHeight="1" spans="5:5">
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" ht="28.05" customHeight="1" spans="3:6">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5">
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" ht="22.05" customHeight="1" spans="3:5">
       <c r="C84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" ht="27" customHeight="1" spans="3:6">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="87" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" ht="27" customHeight="1" spans="3:5">
       <c r="C87" s="5"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" ht="28.95" customHeight="1" spans="3:5">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" s="3" customFormat="1"/>
+    <row r="93" ht="33" customHeight="1" spans="3:6">
       <c r="C93" s="5"/>
-      <c r="D93" s="18"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="27" customHeight="1" spans="1:6">
       <c r="A94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="28.05" customHeight="1" spans="3:5">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="28.95" customHeight="1" spans="3:6">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="100" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" ht="24" customHeight="1" spans="3:5">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" ht="25.05" customHeight="1" spans="3:6">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" ht="25.05" customHeight="1" spans="3:6">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" s="3" customFormat="1"/>
+    <row r="110" ht="27" customHeight="1" spans="3:6">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="28"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-    </row>
-    <row r="113" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-    </row>
-    <row r="114" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" ht="13.5" spans="1:6">
+      <c r="A112" s="5"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" ht="13.95" customHeight="1" spans="1:6">
+      <c r="A113" s="5"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" ht="28.05" customHeight="1" spans="1:6">
       <c r="A114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" ht="27" customHeight="1" spans="3:6">
       <c r="C115" s="5"/>
-      <c r="D115" s="18"/>
+      <c r="D115" s="20"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" ht="27" customHeight="1" spans="3:6">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" ht="28.05" customHeight="1" spans="3:5">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" ht="19.95" customHeight="1" spans="3:5">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" ht="21" customHeight="1" spans="3:6">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" ht="25.95" customHeight="1" spans="3:6">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" ht="22.05" customHeight="1" spans="3:6">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="123" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="22.95" customHeight="1" spans="3:6">
       <c r="C123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-    </row>
-    <row r="127" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-    </row>
-    <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2">
+      <c r="B126" s="23"/>
+    </row>
+    <row r="127" ht="9" customHeight="1" spans="2:2">
+      <c r="B127" s="23"/>
+    </row>
+    <row r="128" s="3" customFormat="1"/>
+    <row r="130" ht="27" customHeight="1" spans="3:6">
       <c r="C130" s="5"/>
-      <c r="D130" s="18"/>
+      <c r="D130" s="20"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="28"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-    </row>
-    <row r="132" spans="1:6" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="28"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-    </row>
-    <row r="133" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" ht="13.5" spans="1:6">
+      <c r="A131" s="5"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" ht="7.95" customHeight="1" spans="1:6">
+      <c r="A132" s="5"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" ht="34.05" customHeight="1" spans="3:6">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" ht="30" customHeight="1" spans="3:6">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" ht="28.05" customHeight="1" spans="3:6">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="28"/>
-    </row>
-    <row r="139" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="28"/>
-    </row>
-    <row r="140" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6">
+      <c r="B138" s="23"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" ht="13.05" customHeight="1" spans="2:6">
+      <c r="B139" s="23"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" ht="28.05" customHeight="1" spans="1:6">
       <c r="A140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5">
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="22.05" customHeight="1" spans="3:3">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="22.05" customHeight="1" spans="3:6">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" ht="22.05" customHeight="1" spans="3:6">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" ht="22.05" customHeight="1"/>
+    <row r="147" ht="21" customHeight="1" spans="1:6">
       <c r="A147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" s="3" customFormat="1"/>
+    <row r="149" ht="22.95" customHeight="1" spans="1:6">
       <c r="A149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
-      <c r="B150" s="30"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="28"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="28"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="28"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D154" s="20"/>
-    </row>
-    <row r="155" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" ht="13.5" spans="1:6">
+      <c r="A150" s="5"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" ht="13.5" spans="1:6">
+      <c r="A151" s="5"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="22"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="22"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="24"/>
+    </row>
+    <row r="155" ht="24" customHeight="1" spans="3:6">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" ht="22.95" customHeight="1" spans="3:6">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" ht="30" customHeight="1" spans="3:6">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" ht="28.95" customHeight="1" spans="3:6">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" ht="28.95" customHeight="1" spans="4:6">
       <c r="D160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" ht="24" customHeight="1" spans="1:6">
       <c r="A161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5">
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" ht="28.95" customHeight="1" spans="3:6">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="19"/>
+    <row r="164" ht="25.95" customHeight="1" spans="2:6">
+      <c r="B164" s="21"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" s="3" customFormat="1"/>
+    <row r="166" ht="25.95" customHeight="1" spans="3:6">
       <c r="C166" s="5"/>
-      <c r="D166" s="18"/>
+      <c r="D166" s="20"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="168" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" ht="27" customHeight="1" spans="1:6">
       <c r="A168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
-      <c r="B169" s="30"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-    </row>
-    <row r="170" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="28"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
-      <c r="B171" s="30"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="28"/>
-    </row>
-    <row r="172" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="28"/>
-    </row>
-    <row r="173" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" ht="13.05" customHeight="1" spans="1:6">
+      <c r="A169" s="5"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" ht="13.05" customHeight="1" spans="1:6">
+      <c r="A170" s="5"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" s="22"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" ht="12" customHeight="1" spans="2:6">
+      <c r="B172" s="22"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" ht="34.05" customHeight="1" spans="3:6">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="21"/>
+    <row r="174" spans="1:6">
+      <c r="A174" s="25"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" ht="31.05" customHeight="1" spans="3:6">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="177" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="28"/>
-      <c r="B178" s="30"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="28"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" s="3" customFormat="1"/>
+    <row r="178" ht="13.5" spans="1:6">
+      <c r="A178" s="5"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" ht="13.5" spans="1:6">
+      <c r="A179" s="5"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="5"/>
-      <c r="B180" s="22"/>
+      <c r="B180" s="26"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B181" s="22"/>
+    <row r="181" spans="2:6">
+      <c r="B181" s="26"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B182" s="22"/>
+    <row r="182" spans="2:5">
+      <c r="B182" s="26"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B183" s="22"/>
+    <row r="183" spans="2:5">
+      <c r="B183" s="26"/>
       <c r="C183" s="5"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B184" s="22"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="22"/>
+    <row r="184" spans="2:2">
+      <c r="B184" s="26"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
     <mergeCell ref="A169:A170"/>
     <mergeCell ref="A171:A172"/>
     <mergeCell ref="A178:A179"/>
@@ -1578,12 +2103,14 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
     <mergeCell ref="B178:B179"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C172"/>
     <mergeCell ref="C178:C179"/>
     <mergeCell ref="D112:D113"/>
     <mergeCell ref="D126:D127"/>
@@ -1594,14 +2121,11 @@
     <mergeCell ref="D169:D170"/>
     <mergeCell ref="D171:D172"/>
     <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E150:E151"/>
     <mergeCell ref="E152:E153"/>
     <mergeCell ref="E169:E170"/>
     <mergeCell ref="E171:E172"/>
@@ -1615,14 +2139,9 @@
     <mergeCell ref="F169:F170"/>
     <mergeCell ref="F171:F172"/>
     <mergeCell ref="F178:F179"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E150:E151"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>